--- a/test.xlsx
+++ b/test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Source\Repos\PixelCounter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF1C9CF-FCEF-477F-A5C5-C579B308C264}">
   <dimension ref="B3:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
